--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf6-Bmpr1a.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N2">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O2">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P2">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q2">
-        <v>1.009012474862</v>
+        <v>1.5748796065135</v>
       </c>
       <c r="R2">
-        <v>6.054074849171999</v>
+        <v>9.449277639080998</v>
       </c>
       <c r="S2">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="T2">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P3">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q3">
         <v>5.617053746609666</v>
@@ -641,10 +641,10 @@
         <v>50.553483719487</v>
       </c>
       <c r="S3">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="T3">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N4">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O4">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P4">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q4">
-        <v>0.03331607350866667</v>
+        <v>0.3697620272803332</v>
       </c>
       <c r="R4">
-        <v>0.2998446615779999</v>
+        <v>3.327858245522999</v>
       </c>
       <c r="S4">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="T4">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N5">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O5">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P5">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q5">
-        <v>6.078037784699998</v>
+        <v>5.843226750157999</v>
       </c>
       <c r="R5">
-        <v>36.46822670819999</v>
+        <v>35.059360500948</v>
       </c>
       <c r="S5">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="T5">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N6">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O6">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P6">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q6">
-        <v>1.093583301675666</v>
+        <v>3.251649146050666</v>
       </c>
       <c r="R6">
-        <v>9.842249715080998</v>
+        <v>29.264842314456</v>
       </c>
       <c r="S6">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="T6">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N7">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O7">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P7">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q7">
-        <v>0.2489049207586666</v>
+        <v>0.2507934473193333</v>
       </c>
       <c r="R7">
-        <v>2.240144286827999</v>
+        <v>2.257141025874</v>
       </c>
       <c r="S7">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="T7">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
     </row>
   </sheetData>
